--- a/example_files/export.xlsx
+++ b/example_files/export.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="174">
   <si>
     <t>序号</t>
   </si>
@@ -24,64 +24,22 @@
     <t>下载地址</t>
   </si>
   <si>
-    <t>a6娱乐</t>
-  </si>
-  <si>
-    <t>118a6.com</t>
-  </si>
-  <si>
-    <t>冠盛娱乐</t>
-  </si>
-  <si>
-    <t>shengguang90.hnrpl.cn</t>
-  </si>
-  <si>
-    <t>开元棋牌</t>
-  </si>
-  <si>
-    <t>97ky.com</t>
-  </si>
-  <si>
-    <t>东升棋牌</t>
-  </si>
-  <si>
-    <t>6ds.cc</t>
-  </si>
-  <si>
-    <t>TT棋牌</t>
-  </si>
-  <si>
-    <t>TT333.com</t>
-  </si>
-  <si>
-    <t>盛大棋牌</t>
-  </si>
-  <si>
-    <t>snda.vip</t>
-  </si>
-  <si>
-    <t>虎牙棋牌</t>
-  </si>
-  <si>
-    <t>huyayl.com</t>
-  </si>
-  <si>
-    <t>老板棋牌</t>
-  </si>
-  <si>
-    <t>4340.com</t>
-  </si>
-  <si>
-    <t>新新娱乐</t>
-  </si>
-  <si>
-    <t>xxyl08.com</t>
-  </si>
-  <si>
-    <t>68棋牌</t>
-  </si>
-  <si>
-    <t>68vx.com</t>
+    <t>古哥</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>油管</t>
+  </si>
+  <si>
+    <t>tw.youtube.com</t>
+  </si>
+  <si>
+    <t>雅虎</t>
+  </si>
+  <si>
+    <t>tw.yahoo.com</t>
   </si>
   <si>
     <t>千亿体育</t>
@@ -570,13 +528,7 @@
     <t>resolve</t>
   </si>
   <si>
-    <t>www.google.com</t>
-  </si>
-  <si>
     <t>168.95.1.1</t>
-  </si>
-  <si>
-    <t>tw.youtube.com</t>
   </si>
   <si>
     <t>8.8.8.8</t>
@@ -589,7 +541,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -602,6 +554,12 @@
       <name val="SimSun"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="SimSun"/>
@@ -641,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -655,12 +613,18 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -911,7 +875,7 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -922,7 +886,7 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -933,1032 +897,678 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="3"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="3"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="3"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="3"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="3"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="3"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="3"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="3"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="3"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="3"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="3"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="3"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="3"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="3"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="3"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="3"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
+      <c r="B44" s="6"/>
       <c r="C44" s="3"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="3"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="3"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="3"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="3"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="4"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="3"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="3"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="3"/>
-      <c r="B51" s="4"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="3"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="3"/>
-      <c r="B52" s="4"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="3"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="3"/>
-      <c r="B53" s="4"/>
+      <c r="B53" s="6"/>
       <c r="C53" s="3"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="4"/>
+      <c r="B54" s="6"/>
       <c r="C54" s="3"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="3"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="3"/>
-      <c r="B56" s="4"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="3"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="3"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="6"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="3"/>
-      <c r="B58" s="4"/>
+      <c r="B58" s="6"/>
       <c r="C58" s="3"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="3"/>
-      <c r="B59" s="4"/>
+      <c r="B59" s="6"/>
       <c r="C59" s="3"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
+      <c r="B60" s="6"/>
       <c r="C60" s="3"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="6"/>
       <c r="C61" s="3"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="6"/>
       <c r="C62" s="3"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="6"/>
       <c r="C63" s="3"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
+      <c r="B64" s="6"/>
       <c r="C64" s="3"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="6"/>
       <c r="C65" s="3"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="6"/>
       <c r="C66" s="3"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="6"/>
       <c r="C67" s="3"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="3"/>
-      <c r="B68" s="4"/>
+      <c r="B68" s="6"/>
       <c r="C68" s="3"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="3"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="6"/>
       <c r="C69" s="3"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
+      <c r="B70" s="6"/>
       <c r="C70" s="3"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="3"/>
-      <c r="B71" s="4"/>
+      <c r="B71" s="6"/>
       <c r="C71" s="3"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
+      <c r="B72" s="6"/>
       <c r="C72" s="3"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="3"/>
-      <c r="B73" s="4"/>
+      <c r="B73" s="6"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="3"/>
-      <c r="B74" s="4"/>
+      <c r="B74" s="6"/>
       <c r="C74" s="3"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="6"/>
       <c r="C75" s="3"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
+      <c r="B76" s="6"/>
       <c r="C76" s="3"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="3"/>
-      <c r="B77" s="4"/>
+      <c r="B77" s="6"/>
       <c r="C77" s="3"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="3"/>
-      <c r="B78" s="4"/>
+      <c r="B78" s="6"/>
       <c r="C78" s="3"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="3"/>
-      <c r="B79" s="4"/>
+      <c r="B79" s="6"/>
       <c r="C79" s="3"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="3"/>
-      <c r="B80" s="4"/>
+      <c r="B80" s="6"/>
       <c r="C80" s="3"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="3"/>
-      <c r="B81" s="4"/>
+      <c r="B81" s="6"/>
       <c r="C81" s="3"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="3"/>
-      <c r="B82" s="4"/>
+      <c r="B82" s="6"/>
       <c r="C82" s="3"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="3"/>
-      <c r="B83" s="4"/>
+      <c r="B83" s="6"/>
       <c r="C83" s="3"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" s="3"/>
-      <c r="B84" s="4"/>
+      <c r="B84" s="6"/>
       <c r="C84" s="3"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="3"/>
-      <c r="B85" s="4"/>
+      <c r="B85" s="6"/>
       <c r="C85" s="3"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="3"/>
-      <c r="B86" s="4"/>
+      <c r="B86" s="6"/>
       <c r="C86" s="3"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="3"/>
-      <c r="B87" s="4"/>
+      <c r="B87" s="6"/>
       <c r="C87" s="3"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="3"/>
-      <c r="B88" s="4"/>
+      <c r="B88" s="6"/>
       <c r="C88" s="3"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="3"/>
-      <c r="B89" s="4"/>
+      <c r="B89" s="6"/>
       <c r="C89" s="3"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="3"/>
-      <c r="B90" s="4"/>
+      <c r="B90" s="6"/>
       <c r="C90" s="3"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="3"/>
-      <c r="B91" s="4"/>
+      <c r="B91" s="6"/>
       <c r="C91" s="3"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="3"/>
-      <c r="B92" s="4"/>
+      <c r="B92" s="6"/>
       <c r="C92" s="3"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="3"/>
-      <c r="B93" s="4"/>
+      <c r="B93" s="6"/>
       <c r="C93" s="3"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="3"/>
-      <c r="B94" s="4"/>
+      <c r="B94" s="6"/>
       <c r="C94" s="3"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="3"/>
-      <c r="B95" s="4"/>
+      <c r="B95" s="6"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="3"/>
-      <c r="B96" s="4"/>
+      <c r="B96" s="6"/>
       <c r="C96" s="3"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="3"/>
-      <c r="B97" s="4"/>
+      <c r="B97" s="6"/>
       <c r="C97" s="3"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" s="3"/>
-      <c r="B98" s="4"/>
+      <c r="B98" s="6"/>
       <c r="C98" s="3"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="A99" s="3"/>
-      <c r="B99" s="4"/>
+      <c r="B99" s="6"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" s="3"/>
-      <c r="B100" s="4"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="3"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" s="3"/>
-      <c r="B101" s="4"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="3"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" s="3"/>
-      <c r="B102" s="4"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="3"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="3"/>
-      <c r="B103" s="4"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="3"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="3"/>
-      <c r="B104" s="4"/>
+      <c r="B104" s="6"/>
       <c r="C104" s="3"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="3"/>
-      <c r="B105" s="4"/>
+      <c r="B105" s="6"/>
       <c r="C105" s="3"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="3"/>
-      <c r="B106" s="4"/>
+      <c r="B106" s="6"/>
       <c r="C106" s="3"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" s="3"/>
-      <c r="B107" s="4"/>
+      <c r="B107" s="6"/>
       <c r="C107" s="3"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" s="3"/>
-      <c r="B108" s="4"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="3"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="3"/>
-      <c r="B109" s="4"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="3"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="3"/>
-      <c r="B110" s="4"/>
+      <c r="B110" s="6"/>
       <c r="C110" s="3"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="3"/>
-      <c r="B111" s="4"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="3"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" s="3"/>
-      <c r="B112" s="4"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="3"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="A113" s="3"/>
-      <c r="B113" s="4"/>
+      <c r="B113" s="6"/>
       <c r="C113" s="3"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="3"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="6"/>
       <c r="C114" s="3"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="3"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="6"/>
       <c r="C115" s="3"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="A116" s="3"/>
-      <c r="B116" s="4"/>
+      <c r="B116" s="6"/>
       <c r="C116" s="3"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="3"/>
-      <c r="B117" s="4"/>
+      <c r="B117" s="6"/>
       <c r="C117" s="3"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="A118" s="3"/>
-      <c r="B118" s="4"/>
+      <c r="B118" s="6"/>
       <c r="C118" s="3"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="A119" s="3"/>
-      <c r="B119" s="4"/>
+      <c r="B119" s="6"/>
       <c r="C119" s="3"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" s="3"/>
-      <c r="B120" s="4"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="3"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" s="3"/>
-      <c r="B121" s="4"/>
+      <c r="B121" s="6"/>
       <c r="C121" s="3"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="3"/>
-      <c r="B122" s="4"/>
+      <c r="B122" s="6"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="3"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="3"/>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="3"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="3"/>
-    </row>
-    <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="3"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="3"/>
-    </row>
-    <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="3"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="3"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="3"/>
-    </row>
-    <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="3"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="3"/>
-    </row>
-    <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="3"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="3"/>
-    </row>
-    <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="3"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="3"/>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="3"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="3"/>
-    </row>
-    <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="3"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="3"/>
-    </row>
-    <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="3"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="3"/>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="3"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="3"/>
-    </row>
-    <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="3"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="3"/>
-    </row>
-    <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="3"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="3"/>
-    </row>
-    <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="3"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="3"/>
-    </row>
-    <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="3"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="3"/>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="3"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="3"/>
-    </row>
-    <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="3"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="3"/>
-    </row>
-    <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="3"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="3"/>
-    </row>
-    <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="3"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="3"/>
-    </row>
-    <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="3"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="3"/>
-    </row>
-    <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="3"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="3"/>
-    </row>
-    <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="3"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="3"/>
-    </row>
-    <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="3"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="3"/>
-    </row>
-    <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="3"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="3"/>
-    </row>
-    <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="3"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="3"/>
-    </row>
-    <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="3"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="3"/>
-    </row>
-    <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="3"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="3"/>
-    </row>
-    <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="3"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="3"/>
-    </row>
-    <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="3"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="3"/>
-    </row>
-    <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="3"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="3"/>
-    </row>
-    <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="3"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="3"/>
-    </row>
-    <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="3"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="3"/>
-    </row>
-    <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" s="3"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="3"/>
-    </row>
-    <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" s="3"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="3"/>
-    </row>
-    <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" s="3"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="3"/>
-    </row>
-    <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" s="3"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="3"/>
-    </row>
-    <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" s="3"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="3"/>
-    </row>
-    <row r="161" ht="14.25" customHeight="1">
-      <c r="A161" s="3"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="3"/>
-    </row>
-    <row r="162" ht="14.25" customHeight="1">
-      <c r="A162" s="3"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="3"/>
-    </row>
-    <row r="163" ht="14.25" customHeight="1">
-      <c r="A163" s="3"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="3"/>
-    </row>
-    <row r="164" ht="14.25" customHeight="1">
-      <c r="A164" s="3"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="3"/>
-    </row>
-    <row r="165" ht="14.25" customHeight="1">
-      <c r="A165" s="3"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="3"/>
-    </row>
-    <row r="166" ht="14.25" customHeight="1">
-      <c r="A166" s="3"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="3"/>
-    </row>
-    <row r="167" ht="14.25" customHeight="1">
-      <c r="A167" s="3"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="3"/>
-    </row>
-    <row r="168" ht="14.25" customHeight="1">
-      <c r="A168" s="3"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="3"/>
-    </row>
-    <row r="169" ht="14.25" customHeight="1">
-      <c r="A169" s="3"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="3"/>
-    </row>
-    <row r="170" ht="14.25" customHeight="1">
-      <c r="A170" s="3"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="3"/>
-    </row>
-    <row r="171" ht="14.25" customHeight="1">
-      <c r="A171" s="3"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="3"/>
-    </row>
-    <row r="172" ht="14.25" customHeight="1">
-      <c r="A172" s="3"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="3"/>
-    </row>
-    <row r="173" ht="14.25" customHeight="1">
-      <c r="A173" s="3"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="3"/>
-    </row>
-    <row r="174" ht="14.25" customHeight="1">
-      <c r="A174" s="3"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="3"/>
-    </row>
-    <row r="175" ht="14.25" customHeight="1">
-      <c r="A175" s="3"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="3"/>
-    </row>
-    <row r="176" ht="14.25" customHeight="1">
-      <c r="A176" s="3"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="3"/>
-    </row>
-    <row r="177" ht="14.25" customHeight="1">
-      <c r="A177" s="3"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="3"/>
-    </row>
-    <row r="178" ht="14.25" customHeight="1">
-      <c r="A178" s="3"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="3"/>
-    </row>
-    <row r="179" ht="14.25" customHeight="1">
-      <c r="A179" s="3"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="3"/>
-    </row>
-    <row r="180" ht="14.25" customHeight="1">
-      <c r="A180" s="3"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="3"/>
-    </row>
-    <row r="181" ht="14.25" customHeight="1">
-      <c r="A181" s="3"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="3"/>
-    </row>
-    <row r="182" ht="14.25" customHeight="1">
-      <c r="A182" s="3"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="3"/>
-    </row>
-    <row r="183" ht="14.25" customHeight="1">
-      <c r="A183" s="3"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="3"/>
-    </row>
-    <row r="184" ht="14.25" customHeight="1">
-      <c r="A184" s="3"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="3"/>
-    </row>
-    <row r="185" ht="14.25" customHeight="1">
-      <c r="A185" s="3"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="3"/>
-    </row>
-    <row r="186" ht="14.25" customHeight="1">
-      <c r="A186" s="3"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="3"/>
-    </row>
-    <row r="187" ht="14.25" customHeight="1">
-      <c r="A187" s="3"/>
-      <c r="B187" s="4"/>
-      <c r="C187" s="3"/>
-    </row>
-    <row r="188" ht="14.25" customHeight="1">
-      <c r="A188" s="3"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="3"/>
-    </row>
-    <row r="189" ht="14.25" customHeight="1">
-      <c r="A189" s="3"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="3"/>
-    </row>
-    <row r="190" ht="14.25" customHeight="1">
-      <c r="A190" s="3"/>
-      <c r="B190" s="4"/>
-      <c r="C190" s="3"/>
-    </row>
-    <row r="191" ht="14.25" customHeight="1">
-      <c r="A191" s="3"/>
-      <c r="B191" s="4"/>
-      <c r="C191" s="3"/>
-    </row>
-    <row r="192" ht="14.25" customHeight="1">
-      <c r="A192" s="3"/>
-      <c r="B192" s="4"/>
-      <c r="C192" s="3"/>
-    </row>
-    <row r="193" ht="14.25" customHeight="1">
-      <c r="A193" s="3"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="3"/>
-    </row>
-    <row r="194" ht="14.25" customHeight="1">
-      <c r="A194" s="3"/>
-      <c r="B194" s="4"/>
-      <c r="C194" s="3"/>
-    </row>
-    <row r="195" ht="14.25" customHeight="1">
-      <c r="A195" s="3"/>
-      <c r="B195" s="4"/>
-      <c r="C195" s="3"/>
-    </row>
-    <row r="196" ht="14.25" customHeight="1">
-      <c r="A196" s="3"/>
-      <c r="B196" s="4"/>
-      <c r="C196" s="3"/>
-    </row>
-    <row r="197" ht="14.25" customHeight="1">
-      <c r="A197" s="3"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="3"/>
-    </row>
-    <row r="198" ht="14.25" customHeight="1">
-      <c r="A198" s="3"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="3"/>
-    </row>
-    <row r="199" ht="14.25" customHeight="1">
-      <c r="A199" s="3"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="3"/>
-    </row>
-    <row r="200" ht="14.25" customHeight="1">
-      <c r="A200" s="3"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="3"/>
-    </row>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
     <row r="201" ht="15.75" customHeight="1"/>
     <row r="202" ht="15.75" customHeight="1"/>
     <row r="203" ht="15.75" customHeight="1"/>
@@ -2014,89 +1624,16 @@
     <row r="253" ht="15.75" customHeight="1"/>
     <row r="254" ht="15.75" customHeight="1"/>
     <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C4"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2132,10 +1669,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -2143,10 +1680,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -2154,10 +1691,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -2165,10 +1702,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -2176,10 +1713,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -2187,10 +1724,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -2198,10 +1735,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -2209,10 +1746,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -2220,10 +1757,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -2231,10 +1768,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -2242,10 +1779,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -2253,10 +1790,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -2264,10 +1801,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -2275,10 +1812,10 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -2286,10 +1823,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -2297,10 +1834,10 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
@@ -2308,10 +1845,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -2319,10 +1856,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -2330,10 +1867,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -2341,10 +1878,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
@@ -2352,10 +1889,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -2363,10 +1900,10 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -2374,10 +1911,10 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -2385,10 +1922,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
@@ -2396,10 +1933,10 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
@@ -2407,10 +1944,10 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
@@ -2418,10 +1955,10 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
@@ -2429,10 +1966,10 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
@@ -2440,10 +1977,10 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
@@ -2451,10 +1988,10 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
@@ -2462,10 +1999,10 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
@@ -2473,10 +2010,10 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
@@ -2484,10 +2021,10 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
@@ -2495,10 +2032,10 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
@@ -2506,10 +2043,10 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
@@ -2517,10 +2054,10 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
@@ -2528,10 +2065,10 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
@@ -2539,10 +2076,10 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
@@ -2550,10 +2087,10 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
@@ -2561,10 +2098,10 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
@@ -2572,10 +2109,10 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
@@ -2583,10 +2120,10 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
@@ -2594,10 +2131,10 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
@@ -2605,10 +2142,10 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
@@ -2616,10 +2153,10 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
@@ -2627,10 +2164,10 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
@@ -2638,10 +2175,10 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
@@ -2649,10 +2186,10 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
@@ -2660,10 +2197,10 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
@@ -2671,10 +2208,10 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
@@ -2682,10 +2219,10 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
@@ -2693,10 +2230,10 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
@@ -2704,10 +2241,10 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
@@ -2715,10 +2252,10 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
@@ -2726,10 +2263,10 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
@@ -2737,10 +2274,10 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
@@ -2748,10 +2285,10 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
@@ -2759,10 +2296,10 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
@@ -2770,10 +2307,10 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
@@ -2781,10 +2318,10 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
@@ -2792,10 +2329,10 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
@@ -2803,10 +2340,10 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
@@ -2814,10 +2351,10 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
@@ -2825,10 +2362,10 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
@@ -2836,10 +2373,10 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
@@ -2847,10 +2384,10 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
@@ -2858,10 +2395,10 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
@@ -2869,10 +2406,10 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
@@ -2880,10 +2417,10 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
@@ -2891,10 +2428,10 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
@@ -2902,10 +2439,10 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
@@ -2913,10 +2450,10 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
@@ -2924,10 +2461,10 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
@@ -2935,10 +2472,10 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
@@ -2946,10 +2483,10 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
@@ -2957,10 +2494,10 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
@@ -2968,10 +2505,10 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
@@ -2979,10 +2516,10 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
@@ -2990,10 +2527,10 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
@@ -3001,10 +2538,10 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
@@ -3012,10 +2549,10 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
@@ -3023,10 +2560,10 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
@@ -3034,10 +2571,10 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
@@ -3045,10 +2582,10 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
@@ -3056,10 +2593,10 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
@@ -3067,10 +2604,10 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
@@ -3078,10 +2615,10 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
@@ -3089,10 +2626,10 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
@@ -3100,10 +2637,10 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
@@ -3111,10 +2648,10 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
@@ -3122,10 +2659,10 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
@@ -4859,35 +4396,35 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>184</v>
+      <c r="A1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>186</v>
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>188</v>
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>189</v>
+      <c r="A4" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
